--- a/public/data/karbari.xlsx
+++ b/public/data/karbari.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kowsar\Desktop\محلات\mahalle-artesh\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100008_{709C48D9-5BB8-4D3C-874C-1B750AED92B8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100008_{A3E161AA-20CC-4034-9F71-D565E3879CBE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,12 +33,6 @@
     <t>تعداد</t>
   </si>
   <si>
-    <t>مساحت</t>
-  </si>
-  <si>
-    <t>کاربری</t>
-  </si>
-  <si>
     <t>بایر</t>
   </si>
   <si>
@@ -106,6 +100,12 @@
   </si>
   <si>
     <t>250</t>
+  </si>
+  <si>
+    <t>sum-shape-area</t>
+  </si>
+  <si>
+    <t>نوع کاربری</t>
   </si>
 </sst>
 </file>
@@ -985,7 +985,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B1" sqref="B1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -998,19 +998,19 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1024,16 +1024,16 @@
         <v>84617</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1047,16 +1047,16 @@
         <v>75636</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1070,16 +1070,16 @@
         <v>7367</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1093,16 +1093,16 @@
         <v>6147</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1116,16 +1116,16 @@
         <v>10214</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1139,16 +1139,16 @@
         <v>27043</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1162,7 +1162,7 @@
         <v>4044</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E8" s="1">
         <v>117</v>
@@ -1185,7 +1185,7 @@
         <v>26181</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E9" s="1">
         <v>230</v>
